--- a/data/Ecoli_CCMB1/AF_2018_sbtA_spotting/031518_CCMB1_colony_counts.xlsx
+++ b/data/Ecoli_CCMB1/AF_2018_sbtA_spotting/031518_CCMB1_colony_counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flamholz/Documents/workspace/ccm_evolution/data/Ecoli_CCMB1/AF_2018_sbtA_spotting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13474ACD-C216-3349-B7D5-C2B93A078A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D40E1F-07FB-FD42-A4C9-F5DD8211C90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glycerol" sheetId="1" r:id="rId1"/>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="I362" sqref="I362:I433"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23031,7 +23031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
